--- a/excels/actualizados/equipos_nba_actualizado.xlsx
+++ b/excels/actualizados/equipos_nba_actualizado.xlsx
@@ -491,7 +491,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>28 - 8</t>
+          <t>64 - 18</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>121.2</v>
+        <v>120.6</v>
       </c>
       <c r="G2" t="n">
-        <v>47.6</v>
+        <v>46.3</v>
       </c>
       <c r="H2" t="n">
-        <v>26</v>
+        <v>26.9</v>
       </c>
       <c r="I2" t="n">
-        <v>110.7</v>
+        <v>109.2</v>
       </c>
     </row>
     <row r="3">
@@ -528,12 +528,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>16 - 21</t>
+          <t>32 - 50</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10th</t>
+          <t>11th</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -542,16 +542,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>114.9</v>
+        <v>110.4</v>
       </c>
       <c r="G3" t="n">
-        <v>46.8</v>
+        <v>44.1</v>
       </c>
       <c r="H3" t="n">
-        <v>26.3</v>
+        <v>25.6</v>
       </c>
       <c r="I3" t="n">
-        <v>116.6</v>
+        <v>113.3</v>
       </c>
     </row>
     <row r="4">
@@ -565,12 +565,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>26 - 17</t>
+          <t>50 - 32</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5th</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -578,25 +578,17 @@
           <t>Eastern</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>115.2</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>46.3</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>24.0</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>110.6</t>
-        </is>
+      <c r="F4" t="n">
+        <v>112.8</v>
+      </c>
+      <c r="G4" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>108.2</v>
       </c>
     </row>
     <row r="5">
@@ -610,12 +602,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>29 - 13</t>
+          <t>47 - 35</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3rd</t>
+          <t>7th</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -623,25 +615,17 @@
           <t>Eastern</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>119.8</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>43.7</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>25.4</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>111.5</t>
-        </is>
+      <c r="F5" t="n">
+        <v>114.6</v>
+      </c>
+      <c r="G5" t="n">
+        <v>43</v>
+      </c>
+      <c r="H5" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="I5" t="n">
+        <v>111.5</v>
       </c>
     </row>
     <row r="6">
@@ -655,7 +639,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16 - 28</t>
+          <t>25 - 57</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -668,25 +652,17 @@
           <t>Eastern</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>114.3</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>43.6</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>29.6</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>116.4</t>
-        </is>
+      <c r="F6" t="n">
+        <v>112.4</v>
+      </c>
+      <c r="G6" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>118.8</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +676,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>21 - 24</t>
+          <t>39 - 43</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -713,25 +689,17 @@
           <t>Eastern</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>110.6</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>43.6</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>24.4</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>112.1</t>
-        </is>
+      <c r="F7" t="n">
+        <v>112.3</v>
+      </c>
+      <c r="G7" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="H7" t="n">
+        <v>25</v>
+      </c>
+      <c r="I7" t="n">
+        <v>113.7</v>
       </c>
     </row>
     <row r="8">
@@ -745,7 +713,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>26 - 15</t>
+          <t>48 - 34</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -758,25 +726,17 @@
           <t>Eastern</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>114.0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>26.9</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>109.7</t>
-        </is>
+      <c r="F8" t="n">
+        <v>112.6</v>
+      </c>
+      <c r="G8" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>28</v>
+      </c>
+      <c r="I8" t="n">
+        <v>110.2</v>
       </c>
     </row>
     <row r="9">
@@ -790,7 +750,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4 - 39</t>
+          <t>14 - 68</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -803,25 +763,17 @@
           <t>Eastern</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>112.4</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>43.3</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>26.4</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>123.0</t>
-        </is>
+      <c r="F9" t="n">
+        <v>109.9</v>
+      </c>
+      <c r="G9" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="H9" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I9" t="n">
+        <v>119</v>
       </c>
     </row>
     <row r="10">
@@ -835,12 +787,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>24 - 19</t>
+          <t>47 - 35</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7th</t>
+          <t>6th</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -848,25 +800,17 @@
           <t>Eastern</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>125.0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>40.5</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>31.1</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>123.1</t>
-        </is>
+      <c r="F10" t="n">
+        <v>123.3</v>
+      </c>
+      <c r="G10" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="I10" t="n">
+        <v>120.2</v>
       </c>
     </row>
     <row r="11">
@@ -880,12 +824,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>25 - 12</t>
+          <t>49 - 33</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2nd</t>
+          <t>3rd</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -894,16 +838,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>124.1</v>
+        <v>119</v>
       </c>
       <c r="G11" t="n">
-        <v>44.1</v>
+        <v>44.2</v>
       </c>
       <c r="H11" t="n">
-        <v>26.4</v>
+        <v>26.5</v>
       </c>
       <c r="I11" t="n">
-        <v>119.9</v>
+        <v>116.4</v>
       </c>
     </row>
     <row r="12">
@@ -917,7 +861,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>18 - 25</t>
+          <t>36 - 46</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -930,25 +874,17 @@
           <t>Eastern</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>119.7</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>44.9</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>25.4</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>122.4</t>
-        </is>
+      <c r="F12" t="n">
+        <v>118.3</v>
+      </c>
+      <c r="G12" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="H12" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="I12" t="n">
+        <v>120.5</v>
       </c>
     </row>
     <row r="13">
@@ -962,7 +898,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>10 - 31</t>
+          <t>21 - 61</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -975,25 +911,17 @@
           <t>Eastern</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>108.8</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>41.3</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>24.9</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>119.9</t>
-        </is>
+      <c r="F13" t="n">
+        <v>106.6</v>
+      </c>
+      <c r="G13" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="H13" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="I13" t="n">
+        <v>116.8</v>
       </c>
     </row>
     <row r="14">
@@ -1007,12 +935,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>24 - 19</t>
+          <t>46 - 36</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>6th</t>
+          <t>8th</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1020,25 +948,17 @@
           <t>Eastern</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>110.9</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>41.6</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>25.7</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>110.7</t>
-        </is>
+      <c r="F14" t="n">
+        <v>110.1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="H14" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="I14" t="n">
+        <v>108.4</v>
       </c>
     </row>
     <row r="15">
@@ -1052,12 +972,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>23 - 21</t>
+          <t>47 - 35</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>8th</t>
+          <t>5th</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1065,25 +985,17 @@
           <t>Eastern</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>111.4</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>43.4</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>24.5</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>111.2</t>
-        </is>
+      <c r="F15" t="n">
+        <v>110.5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="H15" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="I15" t="n">
+        <v>108.4</v>
       </c>
     </row>
     <row r="16">
@@ -1097,7 +1009,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>7 - 35</t>
+          <t>15 - 67</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1110,25 +1022,17 @@
           <t>Eastern</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>115.4</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>27.8</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>124.9</t>
-        </is>
+      <c r="F16" t="n">
+        <v>113.7</v>
+      </c>
+      <c r="G16" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="I16" t="n">
+        <v>123</v>
       </c>
     </row>
     <row r="17">
@@ -1142,12 +1046,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>30 - 14</t>
+          <t>57 - 25</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3rd</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1155,25 +1059,17 @@
           <t>Western</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>115.9</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>44.0</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>29.3</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>110.9</t>
-        </is>
+      <c r="F17" t="n">
+        <v>114.9</v>
+      </c>
+      <c r="G17" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="H17" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="I17" t="n">
+        <v>109.6</v>
       </c>
     </row>
     <row r="18">
@@ -1187,12 +1083,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>30 - 13</t>
+          <t>56 - 26</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>3rd</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1200,25 +1096,17 @@
           <t>Western</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>113.4</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>43.9</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>26.4</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>107.8</t>
-        </is>
+      <c r="F18" t="n">
+        <v>113</v>
+      </c>
+      <c r="G18" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="H18" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="I18" t="n">
+        <v>106.5</v>
       </c>
     </row>
     <row r="19">
@@ -1232,12 +1120,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>24 - 11</t>
+          <t>57 - 25</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2nd</t>
+          <t>1st</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1246,16 +1134,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>122.2</v>
+        <v>120.1</v>
       </c>
       <c r="G19" t="n">
-        <v>40.7</v>
+        <v>42</v>
       </c>
       <c r="H19" t="n">
-        <v>26.9</v>
+        <v>27.1</v>
       </c>
       <c r="I19" t="n">
-        <v>114.6</v>
+        <v>112.7</v>
       </c>
     </row>
     <row r="20">
@@ -1269,12 +1157,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>12 - 30</t>
+          <t>21 - 61</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>14th</t>
+          <t>15th</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1282,25 +1170,17 @@
           <t>Western</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>107.5</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>41.4</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>22.1</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>117.1</t>
-        </is>
+      <c r="F20" t="n">
+        <v>106.4</v>
+      </c>
+      <c r="G20" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="H20" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>115.4</v>
       </c>
     </row>
     <row r="21">
@@ -1314,12 +1194,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>22 - 22</t>
+          <t>31 - 51</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>10th</t>
+          <t>12th</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1327,25 +1207,17 @@
           <t>Western</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>117.3</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>46.7</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>28.1</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>118.7</t>
-        </is>
+      <c r="F21" t="n">
+        <v>115.7</v>
+      </c>
+      <c r="G21" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="H21" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="I21" t="n">
+        <v>120.5</v>
       </c>
     </row>
     <row r="22">
@@ -1359,12 +1231,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>18 - 22</t>
+          <t>46 - 36</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>12th</t>
+          <t>10th</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1372,25 +1244,17 @@
           <t>Western</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>117.2</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>28.2</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>118.2</t>
-        </is>
+      <c r="F22" t="n">
+        <v>117.8</v>
+      </c>
+      <c r="G22" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="H22" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="I22" t="n">
+        <v>115.2</v>
       </c>
     </row>
     <row r="23">
@@ -1404,7 +1268,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>27 - 14</t>
+          <t>51 - 31</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1417,25 +1281,17 @@
           <t>Western</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>117.8</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>43.1</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>25.8</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>112.0</t>
-        </is>
+      <c r="F23" t="n">
+        <v>115.6</v>
+      </c>
+      <c r="G23" t="n">
+        <v>43</v>
+      </c>
+      <c r="H23" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="I23" t="n">
+        <v>112.3</v>
       </c>
     </row>
     <row r="24">
@@ -1449,12 +1305,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>22 - 22</t>
+          <t>47 - 35</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>9th</t>
+          <t>8th</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1462,25 +1318,17 @@
           <t>Western</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>114.8</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>43.2</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>27.9</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>115.6</t>
-        </is>
+      <c r="F24" t="n">
+        <v>118</v>
+      </c>
+      <c r="G24" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="I24" t="n">
+        <v>117.4</v>
       </c>
     </row>
     <row r="25">
@@ -1494,12 +1342,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>25 - 18</t>
+          <t>49 - 33</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>5th</t>
+          <t>6th</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1507,25 +1355,17 @@
           <t>Western</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>116.1</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>43.3</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>26.3</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>114.2</t>
-        </is>
+      <c r="F25" t="n">
+        <v>116.2</v>
+      </c>
+      <c r="G25" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>27</v>
+      </c>
+      <c r="I25" t="n">
+        <v>113.2</v>
       </c>
     </row>
     <row r="26">
@@ -1539,12 +1379,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>24 - 18</t>
+          <t>46 - 36</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>7th</t>
+          <t>9th</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1552,25 +1392,17 @@
           <t>Western</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>118.3</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>43.7</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>28.7</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>117.7</t>
-        </is>
+      <c r="F26" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="G26" t="n">
+        <v>44</v>
+      </c>
+      <c r="H26" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="I26" t="n">
+        <v>114.8</v>
       </c>
     </row>
     <row r="27">
@@ -1584,12 +1416,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>22 - 15</t>
+          <t>50 - 32</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>6th</t>
+          <t>5th</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1598,16 +1430,16 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>119</v>
+        <v>117.9</v>
       </c>
       <c r="G27" t="n">
-        <v>42.4</v>
+        <v>42.9</v>
       </c>
       <c r="H27" t="n">
-        <v>25.4</v>
+        <v>25.7</v>
       </c>
       <c r="I27" t="n">
-        <v>116.8</v>
+        <v>115.6</v>
       </c>
     </row>
     <row r="28">
@@ -1621,7 +1453,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>20 - 22</t>
+          <t>41 - 41</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1634,25 +1466,17 @@
           <t>Western</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>112.5</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>45.2</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>24.8</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>112.1</t>
-        </is>
+      <c r="F28" t="n">
+        <v>114.3</v>
+      </c>
+      <c r="G28" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="H28" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="I28" t="n">
+        <v>113.2</v>
       </c>
     </row>
     <row r="29">
@@ -1666,7 +1490,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>16 - 27</t>
+          <t>27 - 55</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1679,25 +1503,17 @@
           <t>Western</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>107.8</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>42.2</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>24.8</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>113.3</t>
-        </is>
+      <c r="F29" t="n">
+        <v>105.8</v>
+      </c>
+      <c r="G29" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="H29" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="I29" t="n">
+        <v>112.8</v>
       </c>
     </row>
     <row r="30">
@@ -1711,7 +1527,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>22 - 15</t>
+          <t>49 - 33</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1725,16 +1541,16 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>115.8</v>
+        <v>115.1</v>
       </c>
       <c r="G30" t="n">
-        <v>44.5</v>
+        <v>44</v>
       </c>
       <c r="H30" t="n">
-        <v>26.5</v>
+        <v>27</v>
       </c>
       <c r="I30" t="n">
-        <v>111.6</v>
+        <v>110.7</v>
       </c>
     </row>
     <row r="31">
@@ -1748,12 +1564,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>5 - 30</t>
+          <t>22 - 60</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>15th</t>
+          <t>14th</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1762,16 +1578,16 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>111.3</v>
+        <v>112.1</v>
       </c>
       <c r="G31" t="n">
-        <v>42.9</v>
+        <v>44.2</v>
       </c>
       <c r="H31" t="n">
-        <v>28.9</v>
+        <v>29.9</v>
       </c>
       <c r="I31" t="n">
-        <v>122.7</v>
+        <v>118.6</v>
       </c>
     </row>
   </sheetData>
